--- a/Departments/PLCY.xlsx
+++ b/Departments/PLCY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13E9545-84BA-44ED-A08A-300E6769D454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9DCEEC-714F-4E6E-A02B-555F718A2D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D159160-61C2-467A-A435-3356F4122EA1}"/>
+    <workbookView xWindow="2080" yWindow="2080" windowWidth="14400" windowHeight="7360" xr2:uid="{9D159160-61C2-467A-A435-3356F4122EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -274,6 +268,12 @@
   </si>
   <si>
     <t>PLCY 807 - Introduction to Policy Analysis and Issues II</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I30"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,785 +647,785 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
         <v>66</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/PLCY.xlsx
+++ b/Departments/PLCY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9DCEEC-714F-4E6E-A02B-555F718A2D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E8F68-C9DB-44B7-AE47-37C8723697C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2080" windowWidth="14400" windowHeight="7360" xr2:uid="{9D159160-61C2-467A-A435-3356F4122EA1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D159160-61C2-467A-A435-3356F4122EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="86">
   <si>
     <t>Course_Code</t>
   </si>
@@ -132,12 +132,6 @@
     <t>PLCY801,PLCY802</t>
   </si>
   <si>
-    <t>PLCY828</t>
-  </si>
-  <si>
-    <t>PLCY 828 - Multiple Account Benefit-Cost Analysis</t>
-  </si>
-  <si>
     <t>PLCY829</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>PLCY 809 - Major Research Project</t>
   </si>
   <si>
-    <t>REQ: Open only to students enrolled in the MPP program.</t>
-  </si>
-  <si>
     <t>PLCY814</t>
   </si>
   <si>
@@ -274,6 +265,36 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>FALX99</t>
+  </si>
+  <si>
+    <t>EDUC</t>
+  </si>
+  <si>
+    <t>FAL X99 - Foundations of Academic Literacy</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>PLCY100</t>
+  </si>
+  <si>
+    <t>PLCY 100 - Public Policy in Canada and the World</t>
+  </si>
+  <si>
+    <t>PLCY300W</t>
+  </si>
+  <si>
+    <t>PLCY 300W - Applied Public Policy Analysis</t>
+  </si>
+  <si>
+    <t>REQ-45 units.  Students with credit for PLCY 300 may not take this course for further credit. Writing.</t>
+  </si>
+  <si>
+    <t>REQ-Open only to students enrolled in the MPP program.</t>
   </si>
 </sst>
 </file>
@@ -625,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8DF6F1-9F78-4758-97AC-B472F21620E7}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -664,16 +685,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -682,15 +703,15 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -699,7 +720,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -716,7 +737,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -725,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -742,7 +763,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -751,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -764,11 +785,14 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -777,10 +801,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -790,11 +814,14 @@
       </c>
       <c r="H6" t="s">
         <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -803,10 +830,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -816,11 +843,14 @@
       </c>
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -829,10 +859,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -842,11 +872,14 @@
       </c>
       <c r="H8" t="s">
         <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -855,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -872,7 +905,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -881,10 +914,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -898,7 +931,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -907,10 +940,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -924,7 +957,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -933,10 +966,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -950,7 +983,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -959,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -976,7 +1009,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -985,7 +1018,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -998,14 +1031,11 @@
       </c>
       <c r="H14" t="s">
         <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1014,10 +1044,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1031,400 +1061,446 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
         <v>13</v>
       </c>
     </row>
